--- a/target/classes/data.xlsx
+++ b/target/classes/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="供应商" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>admin</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,6 +43,14 @@
   </si>
   <si>
     <t>青</t>
+  </si>
+  <si>
+    <t>jiangyongdong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>essa123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -461,7 +469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -503,10 +511,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -528,6 +536,14 @@
       </c>
       <c r="B2" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
